--- a/data/archive/附件2.xlsx
+++ b/data/archive/附件2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\zivmax\CUMCM_2024\data\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2024\C题乡村农作物种植策略优化\2024-8-28-1 C题(蔡志杰)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825CBA2-769B-4F34-B50E-93B0887B4574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9396" yWindow="4080" windowWidth="19176" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="2023年的农作物种植情况" sheetId="4" r:id="rId1"/>
+    <sheet name="2023年统计的相关数据" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023年的农作物种植情况'!$A$1:$F$88</definedName>
@@ -23,7 +23,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="232">
+  <si>
+    <t>6.00-8.00</t>
+  </si>
+  <si>
+    <t>6.00-7.50</t>
+  </si>
+  <si>
+    <t>5.50-6.50</t>
+  </si>
+  <si>
+    <t>6.50-8.50</t>
+  </si>
+  <si>
+    <t>50.00-65.00</t>
+  </si>
+  <si>
+    <t>18.00-20.00</t>
+  </si>
+  <si>
+    <t>14.00-18.00</t>
+  </si>
+  <si>
+    <t>3.00-4.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00-3.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-8.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50-8.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.50-6.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-8.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-8.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-6.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00-6.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>B1</t>
   </si>
@@ -107,6 +164,10 @@
   </si>
   <si>
     <t>C2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00-7.50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -740,6 +801,70 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>5.00-6.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20-9.60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-7.80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50-8.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.00-4.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.00-50.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.50-4.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.50-3.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-7.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.50-9.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.00-9.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50-7.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.00-120.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.00-6.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00-5.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00-6.50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -810,6 +935,44 @@
     <t>F4</t>
   </si>
   <si>
+    <t>1.00-2.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩产量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斤</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -818,7 +981,202 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>蔬菜</t>
+      <t>小麦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爬豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高粱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黍子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莜麦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大麦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荞麦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红薯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大白菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水稻</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通大棚</t>
     </r>
     <r>
       <rPr>
@@ -834,6 +1192,354 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>榆黄菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白灵菇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羊肚菌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豇豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刀豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芸豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西红柿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>茄子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菠菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜花</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油麦菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小青菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辣椒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芹菜</t>
+    </r>
+  </si>
+  <si>
+    <t>3.20-4.80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.80-6.70</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.80-6.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.60-7.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.80-7.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.60-9.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-7.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.60-5.40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-9.60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.60-9.60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.40-10.80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蔬菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="12"/>
         <color indexed="8"/>
@@ -841,6 +1547,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>地块类型</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00-9.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.80-8.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.80-7.80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.40-7.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20-10.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.80-5.80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单季</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>作物编号</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1066,6 +1814,382 @@
         <charset val="134"/>
       </rPr>
       <t>芹菜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平旱地</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梯田</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄豆</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山坡地</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小麦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水浇地</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一季</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一季</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二季</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白萝卜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红萝卜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧大棚</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二季</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该数据是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年根据近几年的相应数据统计所得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧大棚第一季可种植的蔬菜作物及其亩产量、种植成本和销售价格均与普通大棚相同，表中省略。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种植成本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亩</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售单价</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1073,8 +2197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1172,14 +2296,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,7 +2338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +2430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,13 +2455,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,24 +2494,42 @@
     <xf numFmtId="57" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 27" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 34" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="1"/>
+    <cellStyle name="常规 27" xfId="2"/>
+    <cellStyle name="常规 34" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1626,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1634,1715 +2838,1716 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="13.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E2" s="3">
         <v>80</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F2" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E3" s="3">
         <v>55</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F3" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E4" s="3">
         <v>35</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F4" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E5" s="3">
         <v>72</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F5" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E6" s="6">
         <v>68</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F6" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E7" s="3">
         <v>55</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F7" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F8" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E9" s="3">
         <v>46</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E10" s="3">
         <v>40</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F10" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E11" s="3">
         <v>28</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F11" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E13" s="3">
         <v>86</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F13" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="3">
         <v>55</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F14" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E15" s="3">
         <v>44</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F15" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>106</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E16" s="3">
         <v>50</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F16" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E17" s="3">
         <v>25</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F17" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E18" s="3">
         <v>60</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F18" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E19" s="3">
         <v>45</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F19" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E20" s="3">
         <v>35</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F20" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4">
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F21" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4">
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E22" s="3">
         <v>15</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F22" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>106</v>
+        <v>59</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E23" s="3">
         <v>13</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F23" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>108</v>
+        <v>202</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E24" s="3">
         <v>15</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F24" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4">
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E25" s="3">
         <v>18</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F25" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E26" s="3">
         <v>27</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F26" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="E27" s="3">
         <v>20</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>19</v>
+      <c r="F27" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="4">
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E28" s="3">
         <v>15</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
       <c r="B29" s="4">
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>101</v>
+        <v>204</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E29" s="4">
         <v>15</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>20</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>101</v>
+        <v>206</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E30" s="4">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
       <c r="B31" s="4">
         <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E31" s="3">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>21</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="B32" s="4">
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>101</v>
+        <v>65</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E32" s="4">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
       <c r="B33" s="4">
         <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E33" s="3">
         <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>22</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="4">
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E34" s="4">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
       <c r="B35" s="4">
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E35" s="3">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>93</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="B36" s="4">
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E36" s="3">
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
       <c r="B37" s="4">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>101</v>
+        <v>208</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>23</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4">
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>114</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E38" s="3">
         <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
       <c r="B39" s="4">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>101</v>
+        <v>209</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E39" s="3">
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4">
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E40" s="3">
         <v>22</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4">
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E41" s="3">
         <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="B42" s="4">
         <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>114</v>
+        <v>68</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E42" s="3">
         <v>0.6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
       <c r="B43" s="4">
         <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>117</v>
+        <v>71</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E43" s="3">
         <v>0.6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>78</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="B44" s="4">
         <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E44" s="3">
         <v>0.6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
       <c r="B45" s="4">
         <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>117</v>
+        <v>71</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E45" s="3">
         <v>0.6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>94</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="B46" s="4">
         <v>25</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>101</v>
+        <v>73</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E46" s="3">
         <v>0.6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
       <c r="B47" s="4">
         <v>38</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>117</v>
+        <v>71</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E47" s="3">
         <v>0.6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>95</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="B48" s="4">
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E48" s="3">
         <v>0.6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
       <c r="B49" s="4">
         <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E49" s="3">
         <v>0.6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>79</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="B50" s="4">
         <v>28</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>101</v>
+        <v>206</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E50" s="3">
         <v>0.6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
       <c r="B51" s="4">
         <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E51" s="3">
         <v>0.6</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>80</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="B52" s="4">
         <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E52" s="3">
         <v>0.6</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
       <c r="B53" s="4">
         <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E53" s="3">
         <v>0.6</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="B54" s="4">
         <v>19</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>114</v>
+        <v>78</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E54" s="3">
         <v>0.6</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
       <c r="B55" s="4">
         <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E55" s="3">
         <v>0.6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>96</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="B56" s="4">
         <v>19</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>114</v>
+        <v>78</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E56" s="3">
         <v>0.6</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
       <c r="B57" s="4">
         <v>40</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E57" s="3">
         <v>0.6</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>82</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="B58" s="4">
         <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>114</v>
+        <v>79</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E58" s="3">
         <v>0.6</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
       <c r="B59" s="4">
         <v>40</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E59" s="3">
         <v>0.6</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>83</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="B60" s="4">
         <v>17</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E60" s="3">
         <v>0.6</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
       <c r="B61" s="4">
         <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E61" s="3">
         <v>0.6</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>84</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="B62" s="4">
         <v>17</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E62" s="3">
         <v>0.6</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
       <c r="B63" s="4">
         <v>41</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E63" s="3">
         <v>0.6</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>85</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="B64" s="4">
         <v>22</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E64" s="3">
         <v>0.6</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
       <c r="B65" s="4">
         <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E65" s="3">
         <v>0.6</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>86</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="B66" s="4">
         <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>101</v>
+        <v>65</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E66" s="3">
         <v>0.6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
       <c r="B67" s="4">
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E67" s="3">
         <v>0.6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>87</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B68" s="4">
         <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E68" s="3">
         <v>0.6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
       <c r="B69" s="4">
         <v>41</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E69" s="3">
         <v>0.6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>97</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="B70" s="4">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E70" s="3">
         <v>0.3</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
       <c r="B71" s="4">
         <v>27</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E71" s="3">
         <v>0.3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
       <c r="B72" s="4">
         <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E72" s="3">
         <v>0.6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>98</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="B73" s="4">
         <v>31</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E73" s="3">
         <v>0.6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
       <c r="B74" s="4">
         <v>41</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>117</v>
+        <v>80</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="E74" s="3">
         <v>0.6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>88</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="B75" s="4">
         <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E75" s="3">
         <v>0.3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
       <c r="B76" s="4">
         <v>33</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E76" s="3">
         <v>0.3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
       <c r="B77" s="4">
         <v>24</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E77" s="3">
         <v>0.3</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="30"/>
       <c r="B78" s="4">
         <v>21</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E78" s="3">
         <v>0.3</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>89</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="B79" s="4">
         <v>25</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>101</v>
+        <v>73</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E79" s="3">
         <v>0.3</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
       <c r="B80" s="4">
         <v>26</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E80" s="3">
         <v>0.3</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
       <c r="B81" s="4">
         <v>22</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E81" s="3">
         <v>0.3</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
       <c r="B82" s="4">
         <v>29</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E82" s="3">
         <v>0.3</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>99</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="B83" s="4">
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E83" s="3">
         <v>0.6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
       <c r="B84" s="4">
         <v>28</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>101</v>
+        <v>206</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E84" s="3">
         <v>0.3</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
       <c r="B85" s="4">
         <v>30</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E85" s="3">
         <v>0.3</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>100</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="B86" s="4">
         <v>19</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>114</v>
+        <v>211</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="E86" s="3">
         <v>0.6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="29"/>
       <c r="B87" s="4">
         <v>34</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>101</v>
+        <v>212</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E87" s="3">
         <v>0.3</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
       <c r="B88" s="4">
         <v>23</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E88" s="3">
         <v>0.3</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
@@ -3358,15 +4563,2868 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:J111"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>400</v>
+      </c>
+      <c r="G2" s="3">
+        <v>400</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3">
+        <v>400</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3">
+        <v>400</v>
+      </c>
+      <c r="G4" s="3">
+        <v>350</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3">
+        <v>350</v>
+      </c>
+      <c r="G5" s="3">
+        <v>350</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3">
+        <v>415</v>
+      </c>
+      <c r="G6" s="3">
+        <v>350</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>800</v>
+      </c>
+      <c r="G7" s="3">
+        <v>450</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>360</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>630</v>
+      </c>
+      <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>525</v>
+      </c>
+      <c r="G11" s="3">
+        <v>360</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>110</v>
+      </c>
+      <c r="G12" s="3">
+        <v>350</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>420</v>
+      </c>
+      <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="3">
+        <v>525</v>
+      </c>
+      <c r="G16" s="3">
+        <v>350</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="13">
+        <v>380</v>
+      </c>
+      <c r="G17" s="13">
+        <v>400</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="13">
+        <v>475</v>
+      </c>
+      <c r="G18" s="13">
+        <v>400</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="13">
+        <v>380</v>
+      </c>
+      <c r="G19" s="13">
+        <v>350</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="13">
+        <v>330</v>
+      </c>
+      <c r="G20" s="13">
+        <v>350</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="13">
+        <v>395</v>
+      </c>
+      <c r="G21" s="13">
+        <v>350</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="13">
+        <v>760</v>
+      </c>
+      <c r="G22" s="13">
+        <v>450</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="13">
+        <v>950</v>
+      </c>
+      <c r="G23" s="13">
+        <v>500</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="13">
+        <v>380</v>
+      </c>
+      <c r="G24" s="13">
+        <v>360</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="13">
+        <v>600</v>
+      </c>
+      <c r="G25" s="13">
+        <v>400</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="13">
+        <v>500</v>
+      </c>
+      <c r="G26" s="13">
+        <v>360</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="13">
+        <v>105</v>
+      </c>
+      <c r="G27" s="13">
+        <v>350</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22">
+        <v>12</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2850</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2100</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="13">
+        <v>400</v>
+      </c>
+      <c r="G30" s="13">
+        <v>400</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="13">
+        <v>500</v>
+      </c>
+      <c r="G31" s="13">
+        <v>350</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>360</v>
+      </c>
+      <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>450</v>
+      </c>
+      <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="3">
+        <v>360</v>
+      </c>
+      <c r="G34" s="3">
+        <v>350</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>315</v>
+      </c>
+      <c r="G35" s="3">
+        <v>350</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="3">
+        <v>375</v>
+      </c>
+      <c r="G36" s="3">
+        <v>350</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="3">
+        <v>720</v>
+      </c>
+      <c r="G37" s="3">
+        <v>450</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="3">
+        <v>900</v>
+      </c>
+      <c r="G38" s="3">
+        <v>500</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="3">
+        <v>360</v>
+      </c>
+      <c r="G39" s="3">
+        <v>360</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21">
+        <v>9</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="3">
+        <v>570</v>
+      </c>
+      <c r="G40" s="3">
+        <v>400</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>475</v>
+      </c>
+      <c r="G41" s="3">
+        <v>360</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21">
+        <v>11</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>350</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21">
+        <v>12</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21">
+        <v>13</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>380</v>
+      </c>
+      <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21">
+        <v>15</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>475</v>
+      </c>
+      <c r="G46" s="3">
+        <v>350</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23">
+        <v>16</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="14">
+        <v>500</v>
+      </c>
+      <c r="G47" s="14">
+        <v>680</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22">
+        <v>17</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22">
+        <v>18</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22">
+        <v>19</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22">
+        <v>20</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="B52" s="22">
+        <v>21</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="13">
+        <v>2400</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="22">
+        <v>22</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="13">
+        <v>6400</v>
+      </c>
+      <c r="G53" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="22">
+        <v>23</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2700</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2300</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="22">
+        <v>24</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2400</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="22">
+        <v>25</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" s="13">
+        <v>3300</v>
+      </c>
+      <c r="G56" s="13">
+        <v>2400</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="22">
+        <v>26</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="13">
+        <v>3700</v>
+      </c>
+      <c r="G57" s="13">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>57</v>
+      </c>
+      <c r="B58" s="22">
+        <v>27</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="13">
+        <v>4100</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>58</v>
+      </c>
+      <c r="B59" s="22">
+        <v>28</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="13">
+        <v>3200</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22">
+        <v>29</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="13">
+        <v>12000</v>
+      </c>
+      <c r="G60" s="13">
+        <v>2900</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>60</v>
+      </c>
+      <c r="B61" s="22">
+        <v>30</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="13">
+        <v>4100</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1600</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>61</v>
+      </c>
+      <c r="B62" s="22">
+        <v>31</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>62</v>
+      </c>
+      <c r="B63" s="22">
+        <v>32</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G63" s="13">
+        <v>4100</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22">
+        <v>33</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="13">
+        <v>5000</v>
+      </c>
+      <c r="G64" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22">
+        <v>34</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="13">
+        <v>5500</v>
+      </c>
+      <c r="G65" s="13">
+        <v>900</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="21">
+        <v>17</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21">
+        <v>18</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21">
+        <v>19</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21">
+        <v>20</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21">
+        <v>21</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="21">
+        <v>22</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="21">
+        <v>23</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="21">
+        <v>24</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="21">
+        <v>25</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="21">
+        <v>26</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21">
+        <v>27</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="21">
+        <v>28</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21">
+        <v>29</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="21">
+        <v>30</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="21">
+        <v>31</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="21">
+        <v>32</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21">
+        <v>33</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21">
+        <v>34</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>83</v>
+      </c>
+      <c r="B84" s="22">
+        <v>35</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G84" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
+        <v>84</v>
+      </c>
+      <c r="B85" s="22">
+        <v>36</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="9">
+        <v>4000</v>
+      </c>
+      <c r="G85" s="9">
+        <v>500</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>85</v>
+      </c>
+      <c r="B86" s="22">
+        <v>37</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G86" s="9">
+        <v>500</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21">
+        <v>38</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G87" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21">
+        <v>39</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G88" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21">
+        <v>40</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G89" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21">
+        <v>41</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G90" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>90</v>
+      </c>
+      <c r="B91" s="22">
+        <v>17</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F91" s="9">
+        <v>3200</v>
+      </c>
+      <c r="G91" s="9">
+        <v>2640</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>91</v>
+      </c>
+      <c r="B92" s="22">
+        <v>18</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1320</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>92</v>
+      </c>
+      <c r="B93" s="22">
+        <v>19</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="9">
+        <v>3200</v>
+      </c>
+      <c r="G93" s="9">
+        <v>2640</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>93</v>
+      </c>
+      <c r="B94" s="22">
+        <v>20</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F94" s="9">
+        <v>2200</v>
+      </c>
+      <c r="G94" s="9">
+        <v>2640</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>94</v>
+      </c>
+      <c r="B95" s="22">
+        <v>21</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="9">
+        <v>2700</v>
+      </c>
+      <c r="G95" s="9">
+        <v>2640</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>95</v>
+      </c>
+      <c r="B96" s="22">
+        <v>22</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F96" s="9">
+        <v>7200</v>
+      </c>
+      <c r="G96" s="9">
+        <v>2640</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>96</v>
+      </c>
+      <c r="B97" s="22">
+        <v>23</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G97" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>97</v>
+      </c>
+      <c r="B98" s="22">
+        <v>24</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" s="9">
+        <v>2700</v>
+      </c>
+      <c r="G98" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>98</v>
+      </c>
+      <c r="B99" s="22">
+        <v>25</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F99" s="9">
+        <v>3600</v>
+      </c>
+      <c r="G99" s="9">
+        <v>3300</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>99</v>
+      </c>
+      <c r="B100" s="22">
+        <v>26</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" s="9">
+        <v>4100</v>
+      </c>
+      <c r="G100" s="9">
+        <v>3850</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
+        <v>100</v>
+      </c>
+      <c r="B101" s="22">
+        <v>27</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F101" s="9">
+        <v>4500</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <v>101</v>
+      </c>
+      <c r="B102" s="22">
+        <v>28</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3600</v>
+      </c>
+      <c r="G102" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="22">
+        <v>102</v>
+      </c>
+      <c r="B103" s="22">
+        <v>29</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" s="9">
+        <v>13500</v>
+      </c>
+      <c r="G103" s="9">
+        <v>3850</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="22">
+        <v>103</v>
+      </c>
+      <c r="B104" s="22">
+        <v>30</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F104" s="9">
+        <v>4500</v>
+      </c>
+      <c r="G104" s="9">
+        <v>2200</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="22">
+        <v>104</v>
+      </c>
+      <c r="B105" s="22">
+        <v>31</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="22">
+        <v>105</v>
+      </c>
+      <c r="B106" s="22">
+        <v>32</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="9">
+        <v>11000</v>
+      </c>
+      <c r="G106" s="9">
+        <v>5500</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="22">
+        <v>106</v>
+      </c>
+      <c r="B107" s="22">
+        <v>33</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" s="9">
+        <v>5400</v>
+      </c>
+      <c r="G107" s="9">
+        <v>2750</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="22">
+        <v>107</v>
+      </c>
+      <c r="B108" s="22">
+        <v>34</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="9">
+        <v>6000</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:H109">
+    <sortCondition ref="A3:A109"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>